--- a/template Excel/Accountting/Taxes.xlsx
+++ b/template Excel/Accountting/Taxes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D614D743-FECB-41D4-ACD3-80F63D799544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BD9A8F-9F13-4699-92F8-AB3D512E5EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11835" xr2:uid="{B924051A-93E3-4B40-8846-34CAF402E98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B924051A-93E3-4B40-8846-34CAF402E98C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
